--- a/Literature Review/1 Fetched papers/3 GoogleScholar/3Results.xlsx
+++ b/Literature Review/1 Fetched papers/3 GoogleScholar/3Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c54173f890ebde1/21.- PhD 2020/2023 Plan/1 Fetched papers/3 GoogleScholar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grisv/GitHub/MRS-ThesisMaterial/Literature Review/1 Fetched papers/3 GoogleScholar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="909" documentId="8_{3DF18F4C-75A9-A444-8F34-5315877777F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{838C2469-3B12-964C-B7FF-B2CA3CC2A8FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7212C97-11DF-ED46-9C5B-09299A8D6DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="300" windowWidth="22200" windowHeight="12580" activeTab="1" xr2:uid="{679AAFBB-3BE5-4D49-8DF0-28FA30C08631}"/>
+    <workbookView xWindow="6120" yWindow="300" windowWidth="21480" windowHeight="16640" activeTab="1" xr2:uid="{679AAFBB-3BE5-4D49-8DF0-28FA30C08631}"/>
   </bookViews>
   <sheets>
     <sheet name="Downloaded papers" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Title</t>
   </si>
@@ -116,23 +116,35 @@
     <t>Evaluating methods for end-user creation of robot task plans</t>
   </si>
   <si>
-    <t>NOTE: After eliminating duplicates and going to Title and Abstract</t>
-  </si>
-  <si>
     <t>NOTE: 25 papers collected - 7 are repeated (already in databse from the Venues and IEEE search) = 22</t>
+  </si>
+  <si>
+    <t>Distributed motion coordination for multi-robot systems under LTL specifications</t>
+  </si>
+  <si>
+    <t>Multi-robot ltl planning under uncertainty</t>
+  </si>
+  <si>
+    <t>NOTE: After eliminating duplicates and going to Title and Abstract from 25, ended 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -176,12 +188,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +521,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -638,15 +651,15 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -658,10 +671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5C5980-A977-CF4A-A03B-5034339CD57D}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,95 +682,105 @@
     <col min="1" max="1" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
